--- a/granularidade_grossa/results/new_rq1_table.xlsx
+++ b/granularidade_grossa/results/new_rq1_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CIVIL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNCIVIL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CIVIL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNCIVIL" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,8 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -520,10 +522,20 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
@@ -554,23 +566,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>deepseek-r1_14b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F4" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1353</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>0.716</v>
+      </c>
+      <c r="I4" t="n">
+        <v>994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -595,16 +613,22 @@
         <v>0.73</v>
       </c>
       <c r="G5" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="I5" t="n">
         <v>601</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>1768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>few_shot</t>
+          <t>one_shot</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -614,23 +638,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gemma2_9b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E6" t="n">
         <v>0.92</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G6" t="n">
-        <v>971</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>420</v>
+        <v>0.726</v>
+      </c>
+      <c r="I6" t="n">
+        <v>911</v>
+      </c>
+      <c r="J6" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -649,22 +679,28 @@
         <v>0.84</v>
       </c>
       <c r="E7" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="G7" t="n">
-        <v>558</v>
+        <v>0.601</v>
       </c>
       <c r="H7" t="n">
-        <v>2019</v>
+        <v>0.642</v>
+      </c>
+      <c r="I7" t="n">
+        <v>507</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>auto_cot</t>
+          <t>few_shot</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -674,23 +710,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>llama3.1_8b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F8" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1158</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>282</v>
+        <v>0.727</v>
+      </c>
+      <c r="I8" t="n">
+        <v>917</v>
+      </c>
+      <c r="J8" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -702,29 +744,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>llama3.2_3b</t>
+          <t>gemma_7b</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F9" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>445</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
-        <v>2194</v>
+        <v>0.652</v>
+      </c>
+      <c r="I9" t="n">
+        <v>558</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>role_based</t>
+          <t>auto_cot</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -734,23 +782,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>deepseek-r1_14b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E10" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F10" t="n">
         <v>0.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1036</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>256</v>
+        <v>0.723</v>
+      </c>
+      <c r="I10" t="n">
+        <v>944</v>
+      </c>
+      <c r="J10" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -769,25 +823,104 @@
         <v>0.86</v>
       </c>
       <c r="E11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="I11" t="n">
+        <v>445</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>role_based</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Best</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I12" t="n">
+        <v>778</v>
+      </c>
+      <c r="J12" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Worst</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>llama3.2_3b</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.78</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F13" t="n">
         <v>0.82</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="I13" t="n">
         <v>645</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J13" t="n">
         <v>1081</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -799,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +952,8 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -844,10 +979,20 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
@@ -878,23 +1023,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gemma2_9b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="F4" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>868</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>590</v>
+        <v>0.716</v>
+      </c>
+      <c r="I4" t="n">
+        <v>994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -919,16 +1070,22 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="I5" t="n">
         <v>1863</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>few_shot</t>
+          <t>one_shot</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -938,23 +1095,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gemma2_9b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="G6" t="n">
-        <v>971</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>420</v>
+        <v>0.726</v>
+      </c>
+      <c r="I6" t="n">
+        <v>911</v>
+      </c>
+      <c r="J6" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -979,16 +1142,22 @@
         <v>0.16</v>
       </c>
       <c r="G7" t="n">
-        <v>1764</v>
+        <v>0.74</v>
       </c>
       <c r="H7" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1765</v>
+      </c>
+      <c r="J7" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>auto_cot</t>
+          <t>few_shot</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -998,23 +1167,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gemma2_9b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="E8" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="G8" t="n">
-        <v>875</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>552</v>
+        <v>0.727</v>
+      </c>
+      <c r="I8" t="n">
+        <v>917</v>
+      </c>
+      <c r="J8" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -1026,29 +1201,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mistral_7b</t>
+          <t>deepseek-r1_14b</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="F9" t="n">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="G9" t="n">
-        <v>1476</v>
+        <v>0.74</v>
       </c>
       <c r="H9" t="n">
-        <v>107</v>
+        <v>0.542</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1764</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>role_based</t>
+          <t>auto_cot</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1058,23 +1239,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>llama3.1_8b</t>
+          <t>gpt-4o-mini</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="F10" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="G10" t="n">
-        <v>856</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>464</v>
+        <v>0.723</v>
+      </c>
+      <c r="I10" t="n">
+        <v>944</v>
+      </c>
+      <c r="J10" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -1086,32 +1273,111 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>mistral_7b</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J11" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>role_based</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Best</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I12" t="n">
+        <v>778</v>
+      </c>
+      <c r="J12" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Worst</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>deepseek-r1_8b</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>0.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>0.11</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F13" t="n">
         <v>0.2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="I13" t="n">
         <v>1716</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J13" t="n">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/granularidade_grossa/results/new_rq1_table.xlsx
+++ b/granularidade_grossa/results/new_rq1_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CIVIL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="UNCIVIL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CIVIL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNCIVIL" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,9 +494,6 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -525,21 +522,6 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>roc_auc</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -580,15 +562,6 @@
       </c>
       <c r="G4" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="I4" t="n">
-        <v>994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -615,15 +588,6 @@
       <c r="G5" t="n">
         <v>0.656</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="I5" t="n">
-        <v>601</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1768</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -652,15 +616,6 @@
       </c>
       <c r="G6" t="n">
         <v>0.8120000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="I6" t="n">
-        <v>911</v>
-      </c>
-      <c r="J6" t="n">
-        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -687,15 +642,6 @@
       <c r="G7" t="n">
         <v>0.601</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="I7" t="n">
-        <v>507</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2240</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -724,15 +670,6 @@
       </c>
       <c r="G8" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="I8" t="n">
-        <v>917</v>
-      </c>
-      <c r="J8" t="n">
-        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -759,15 +696,6 @@
       <c r="G9" t="n">
         <v>0.625</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="I9" t="n">
-        <v>558</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2019</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -796,15 +724,6 @@
       </c>
       <c r="G10" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="I10" t="n">
-        <v>944</v>
-      </c>
-      <c r="J10" t="n">
-        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -831,15 +750,6 @@
       <c r="G11" t="n">
         <v>0.616</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="I11" t="n">
-        <v>445</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2194</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -868,15 +778,6 @@
       </c>
       <c r="G12" t="n">
         <v>0.829</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I12" t="n">
-        <v>778</v>
-      </c>
-      <c r="J12" t="n">
-        <v>397</v>
       </c>
     </row>
     <row r="13">
@@ -902,23 +803,14 @@
       </c>
       <c r="G13" t="n">
         <v>0.749</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="I13" t="n">
-        <v>645</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1081</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
@@ -932,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,9 +843,6 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -982,21 +871,6 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>roc_auc</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1037,15 +911,6 @@
       </c>
       <c r="G4" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="I4" t="n">
-        <v>994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -1072,15 +937,6 @@
       <c r="G5" t="n">
         <v>0.728</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1863</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1109,15 +965,6 @@
       </c>
       <c r="G6" t="n">
         <v>0.8120000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="I6" t="n">
-        <v>911</v>
-      </c>
-      <c r="J6" t="n">
-        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -1144,15 +991,6 @@
       <c r="G7" t="n">
         <v>0.74</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1765</v>
-      </c>
-      <c r="J7" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1181,15 +1019,6 @@
       </c>
       <c r="G8" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="I8" t="n">
-        <v>917</v>
-      </c>
-      <c r="J8" t="n">
-        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -1216,15 +1045,6 @@
       <c r="G9" t="n">
         <v>0.74</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1764</v>
-      </c>
-      <c r="J9" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1253,15 +1073,6 @@
       </c>
       <c r="G10" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="I10" t="n">
-        <v>944</v>
-      </c>
-      <c r="J10" t="n">
-        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -1288,15 +1099,6 @@
       <c r="G11" t="n">
         <v>0.77</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1476</v>
-      </c>
-      <c r="J11" t="n">
-        <v>107</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1325,15 +1127,6 @@
       </c>
       <c r="G12" t="n">
         <v>0.829</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I12" t="n">
-        <v>778</v>
-      </c>
-      <c r="J12" t="n">
-        <v>397</v>
       </c>
     </row>
     <row r="13">
@@ -1359,23 +1152,14 @@
       </c>
       <c r="G13" t="n">
         <v>0.747</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1716</v>
-      </c>
-      <c r="J13" t="n">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
